--- a/Study 3/results/E.z_sem_results.xlsx
+++ b/Study 3/results/E.z_sem_results.xlsx
@@ -467,22 +467,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.411702204400744</v>
+        <v>-0.411702204401225</v>
       </c>
       <c r="C2" t="n">
-        <v>0.128879887102673</v>
+        <v>0.128879888863879</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.19446434704554</v>
+        <v>-3.19446430339537</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0014009058769866</v>
+        <v>0.00140090608883492</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.664302141453572</v>
+        <v>-0.664302144905953</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.159102267347916</v>
+        <v>-0.159102263896497</v>
       </c>
     </row>
     <row r="3">
@@ -490,22 +490,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.381782868045723</v>
+        <v>-0.381782868045897</v>
       </c>
       <c r="C3" t="n">
-        <v>0.130708974308713</v>
+        <v>0.130708976496985</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.92086193824775</v>
+        <v>-2.9208618893493</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00349064476940297</v>
+        <v>0.00349064531724785</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.637967750146972</v>
+        <v>-0.63796775443608</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.125597985944474</v>
+        <v>-0.125597981655714</v>
       </c>
     </row>
     <row r="4">
@@ -513,22 +513,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0403629878731152</v>
+        <v>-0.0403629878728106</v>
       </c>
       <c r="C4" t="n">
-        <v>0.141306111166537</v>
+        <v>0.141306108440288</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.285642195796792</v>
+        <v>-0.285642201305593</v>
       </c>
       <c r="E4" t="n">
-        <v>0.775152181732468</v>
+        <v>0.775152177512785</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.317317876554941</v>
+        <v>-0.317317871211286</v>
       </c>
       <c r="G4" t="n">
-        <v>0.236591900808711</v>
+        <v>0.236591895465665</v>
       </c>
     </row>
     <row r="5">
@@ -536,22 +536,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.427373699639364</v>
+        <v>-0.427373699639559</v>
       </c>
       <c r="C5" t="n">
-        <v>0.146317665358654</v>
+        <v>0.14631766780824</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.92086193824775</v>
+        <v>-2.9208618893493</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00349064476940297</v>
+        <v>0.00349064531724785</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.71415105404431</v>
+        <v>-0.714151058845605</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.140596345234418</v>
+        <v>-0.140596340433513</v>
       </c>
     </row>
     <row r="6">
@@ -559,22 +559,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.034883260276529</v>
+        <v>-0.0348832602762657</v>
       </c>
       <c r="C6" t="n">
-        <v>0.122122224201586</v>
+        <v>0.122122221845455</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.285642195796792</v>
+        <v>-0.285642201305593</v>
       </c>
       <c r="E6" t="n">
-        <v>0.775152181732468</v>
+        <v>0.775152177512785</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.274238421423563</v>
+        <v>-0.274238416805368</v>
       </c>
       <c r="G6" t="n">
-        <v>0.204471900870505</v>
+        <v>0.204471896252837</v>
       </c>
     </row>
     <row r="7">
@@ -585,19 +585,19 @@
         <v>-1.23324020768374</v>
       </c>
       <c r="C7" t="n">
-        <v>0.144847100176779</v>
+        <v>0.144847101859589</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.51408282374051</v>
+        <v>-8.5140827248253</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.51713530729529</v>
+        <v>-1.51713531059353</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.949345108072183</v>
+        <v>-0.949345104773937</v>
       </c>
     </row>
     <row r="8">
@@ -608,19 +608,19 @@
         <v>-0.26207143284826</v>
       </c>
       <c r="C8" t="n">
-        <v>0.120894835216094</v>
+        <v>0.120894832264213</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.1677636797289</v>
+        <v>-2.16776373265905</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0301766715867624</v>
+        <v>0.0301766675575048</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.499020955788709</v>
+        <v>-0.499020950003127</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0251219099078102</v>
+        <v>-0.0251219156933921</v>
       </c>
     </row>
     <row r="9">
@@ -628,22 +628,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.520053924001593</v>
+        <v>0.520053912027358</v>
       </c>
       <c r="C9" t="n">
-        <v>0.144018554574835</v>
+        <v>0.144018552347457</v>
       </c>
       <c r="D9" t="n">
-        <v>3.61102029899462</v>
+        <v>3.61102027169862</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000304994786894053</v>
+        <v>0.000304994818997706</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2377827439294</v>
+        <v>0.237782736320745</v>
       </c>
       <c r="G9" t="n">
-        <v>0.802325104073785</v>
+        <v>0.802325087733971</v>
       </c>
     </row>
     <row r="10">
@@ -654,19 +654,19 @@
         <v>-0.971168774835476</v>
       </c>
       <c r="C10" t="n">
-        <v>0.121630944465151</v>
+        <v>0.121630945504094</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.98455343009958</v>
+        <v>-7.98455336189743</v>
       </c>
       <c r="E10" t="n">
         <v>0.00000000000000133226762955019</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.20956104539276</v>
+        <v>-1.20956104742905</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.732776504278188</v>
+        <v>-0.732776502241898</v>
       </c>
     </row>
     <row r="11">
@@ -674,22 +674,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.392490439362835</v>
+        <v>-0.392490439363293</v>
       </c>
       <c r="C11" t="n">
-        <v>0.12286580682519</v>
+        <v>0.122865808504211</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.19446434695423</v>
+        <v>-3.19446430330406</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0014009058774298</v>
+        <v>0.00140090608927812</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.633302995671663</v>
+        <v>-0.633302998962941</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.151677883054007</v>
+        <v>-0.151677879763645</v>
       </c>
     </row>
     <row r="12">
@@ -697,22 +697,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.341419880172608</v>
+        <v>-0.341419880173087</v>
       </c>
       <c r="C12" t="n">
-        <v>0.122927682508629</v>
+        <v>0.122927682841893</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.77740435030686</v>
+        <v>-2.77740434278106</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00547949650024737</v>
+        <v>0.00547949662713654</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.582353710592496</v>
+        <v>-0.582353711246159</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.10048604975272</v>
+        <v>-0.100486049100014</v>
       </c>
     </row>
     <row r="13">
@@ -720,22 +720,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.421781649209757</v>
+        <v>-0.421781649210259</v>
       </c>
       <c r="C13" t="n">
-        <v>0.14489515743249</v>
+        <v>0.144895160291023</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.91094372430131</v>
+        <v>-2.91094366687685</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00360338912047431</v>
+        <v>0.00360338978272057</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.705770939311699</v>
+        <v>-0.705770944914822</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.137792359107815</v>
+        <v>-0.137792353505696</v>
       </c>
     </row>
     <row r="14">
@@ -743,22 +743,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.361760139143119</v>
+        <v>-0.361760139143628</v>
       </c>
       <c r="C14" t="n">
-        <v>0.133110811049494</v>
+        <v>0.133110812325367</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.71773672093853</v>
+        <v>-2.71773669489272</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00657301176245073</v>
+        <v>0.00657301227982909</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.622652534753043</v>
+        <v>-0.622652537254218</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.100867743533195</v>
+        <v>-0.100867741033038</v>
       </c>
     </row>
     <row r="15">
@@ -766,22 +766,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.47437562151084</v>
+        <v>-2.47437562150795</v>
       </c>
       <c r="C15" t="n">
-        <v>0.834273863064223</v>
+        <v>0.834273873873362</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.96590332150961</v>
+        <v>-2.96590328307889</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00301795343169831</v>
+        <v>0.00301795380880576</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.10952234635981</v>
+        <v>-4.10952236754245</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.839228896661858</v>
+        <v>-0.839228875473447</v>
       </c>
     </row>
     <row r="16">
@@ -789,22 +789,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.462256959915893</v>
+        <v>-0.462256959915825</v>
       </c>
       <c r="C16" t="n">
-        <v>0.239894533478973</v>
+        <v>0.239894533208309</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.92691743831007</v>
+        <v>-1.92691744048386</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0539899199036731</v>
+        <v>0.0539899196327254</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.932441605622718</v>
+        <v>-0.932441605092159</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00792768579093206</v>
+        <v>0.00792768526050946</v>
       </c>
     </row>
     <row r="17">
@@ -812,22 +812,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.231128479957947</v>
+        <v>-0.231128479957912</v>
       </c>
       <c r="C17" t="n">
-        <v>0.119947266739486</v>
+        <v>0.119947266604155</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.92691743831007</v>
+        <v>-1.92691744048386</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0539899199036731</v>
+        <v>0.0539899196327254</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.466220802811359</v>
+        <v>-0.466220802546079</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00396384289546603</v>
+        <v>0.00396384263025473</v>
       </c>
     </row>
     <row r="18">
@@ -835,22 +835,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>0.161361959404889</v>
+        <v>0.161361959405381</v>
       </c>
       <c r="C18" t="n">
-        <v>0.151619034863745</v>
+        <v>0.151619031855601</v>
       </c>
       <c r="D18" t="n">
-        <v>1.06425924389968</v>
+        <v>1.06425926501799</v>
       </c>
       <c r="E18" t="n">
-        <v>0.287211275458919</v>
+        <v>0.287211265894734</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.135805888298775</v>
+        <v>-0.135805882402427</v>
       </c>
       <c r="G18" t="n">
-        <v>0.458529807108552</v>
+        <v>0.458529801213189</v>
       </c>
     </row>
     <row r="19">
@@ -858,22 +858,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>0.392490439362835</v>
+        <v>0.392490439363293</v>
       </c>
       <c r="C19" t="n">
-        <v>0.12286580682519</v>
+        <v>0.122865808504211</v>
       </c>
       <c r="D19" t="n">
-        <v>3.19446434695423</v>
+        <v>3.19446430330406</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0014009058774298</v>
+        <v>0.00140090608927812</v>
       </c>
       <c r="F19" t="n">
-        <v>0.151677883054007</v>
+        <v>0.151677879763645</v>
       </c>
       <c r="G19" t="n">
-        <v>0.633302995671663</v>
+        <v>0.633302998962941</v>
       </c>
     </row>
     <row r="20">
@@ -881,22 +881,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>0.392490439362835</v>
+        <v>0.392490439363293</v>
       </c>
       <c r="C20" t="n">
-        <v>0.12286580682519</v>
+        <v>0.122865808504211</v>
       </c>
       <c r="D20" t="n">
-        <v>3.19446434695423</v>
+        <v>3.19446430330406</v>
       </c>
       <c r="E20" t="n">
-        <v>0.000700452938714912</v>
+        <v>0.000700453044639005</v>
       </c>
       <c r="F20" t="n">
-        <v>0.151677883054007</v>
+        <v>0.151677879763645</v>
       </c>
       <c r="G20" t="n">
-        <v>0.633302995671663</v>
+        <v>0.633302998962941</v>
       </c>
     </row>
     <row r="21">
@@ -904,22 +904,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="n">
-        <v>0.462256959915893</v>
+        <v>0.462256959915825</v>
       </c>
       <c r="C21" t="n">
-        <v>0.239894533478973</v>
+        <v>0.239894533208309</v>
       </c>
       <c r="D21" t="n">
-        <v>1.92691743831007</v>
+        <v>1.92691744048386</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0269949599518366</v>
+        <v>0.0269949598163627</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.00792768579093206</v>
+        <v>-0.00792768526050946</v>
       </c>
       <c r="G21" t="n">
-        <v>0.932441605622718</v>
+        <v>0.932441605092159</v>
       </c>
     </row>
     <row r="22">
@@ -927,22 +927,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.069766520553058</v>
+        <v>-0.0697665205525315</v>
       </c>
       <c r="C22" t="n">
-        <v>0.244244448403171</v>
+        <v>0.24424444369091</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.285642195796792</v>
+        <v>-0.285642201305593</v>
       </c>
       <c r="E22" t="n">
-        <v>0.612423909133766</v>
+        <v>0.612423911243607</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.548476842847125</v>
+        <v>-0.548476833610737</v>
       </c>
       <c r="G22" t="n">
-        <v>0.408943801741009</v>
+        <v>0.408943792505673</v>
       </c>
     </row>
     <row r="23">
@@ -950,16 +950,16 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>0.361760139143119</v>
+        <v>0.361760139143628</v>
       </c>
       <c r="C23" t="n">
-        <v>0.133110811049494</v>
+        <v>0.133110812325367</v>
       </c>
       <c r="D23" t="n">
-        <v>2.71773672093853</v>
+        <v>2.71773669489272</v>
       </c>
       <c r="E23" t="n">
-        <v>0.996713494118775</v>
+        <v>0.996713493860085</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
@@ -969,16 +969,16 @@
         <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>0.421781649209757</v>
+        <v>0.421781649210259</v>
       </c>
       <c r="C24" t="n">
-        <v>0.14489515743249</v>
+        <v>0.144895160291023</v>
       </c>
       <c r="D24" t="n">
-        <v>2.91094372430131</v>
+        <v>2.91094366687685</v>
       </c>
       <c r="E24" t="n">
-        <v>0.998198305439763</v>
+        <v>0.99819830510864</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -988,16 +988,16 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>2.47437562151084</v>
+        <v>2.47437562150795</v>
       </c>
       <c r="C25" t="n">
-        <v>0.834273863064223</v>
+        <v>0.834273873873362</v>
       </c>
       <c r="D25" t="n">
-        <v>2.96590332150961</v>
+        <v>2.96590328307889</v>
       </c>
       <c r="E25" t="n">
-        <v>0.998491023284151</v>
+        <v>0.998491023095597</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
@@ -1007,16 +1007,16 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>2.47437562151084</v>
+        <v>2.47437562150795</v>
       </c>
       <c r="C26" t="n">
-        <v>0.834273863064223</v>
+        <v>0.834273873873362</v>
       </c>
       <c r="D26" t="n">
-        <v>2.96590332150961</v>
+        <v>2.96590328307889</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00150897671584916</v>
+        <v>0.00150897690440286</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
